--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -770,14 +770,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,21 +1106,21 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>200</v>
       </c>
       <c r="D95" s="10">
-        <v>42282</v>
+        <v>42289</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>208</v>
@@ -2654,7 +2654,7 @@
       <c r="C97" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="17">
         <v>42282</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -2671,7 +2671,7 @@
       <c r="C98" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="17">
         <v>42282</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -2688,7 +2688,7 @@
       <c r="C99" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="17">
         <v>42282</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -2705,7 +2705,7 @@
       <c r="C100" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="17">
         <v>42282</v>
       </c>
       <c r="E100" s="7" t="s">

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="211">
   <si>
     <t>№</t>
   </si>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>Изображение</t>
-  </si>
-  <si>
-    <t> 14-09-2015</t>
   </si>
   <si>
     <t>Архивы</t>
@@ -730,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -765,7 +762,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1085,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,21 +1102,21 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1357,7 @@
       <c r="C18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>201</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1406,7 +1402,7 @@
       <c r="C21" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>42278</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1423,7 +1419,7 @@
       <c r="C22" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>42278</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1655,7 +1651,7 @@
       <c r="C36" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>201</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -1672,7 +1668,7 @@
       <c r="C37" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>201</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1727,7 +1723,7 @@
         <v>42261</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -2179,8 +2175,8 @@
       <c r="C68" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>210</v>
+      <c r="D68" s="10">
+        <v>42318</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>205</v>
@@ -2196,8 +2192,8 @@
       <c r="C69" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>210</v>
+      <c r="D69" s="10">
+        <v>42318</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>205</v>
@@ -2213,8 +2209,8 @@
       <c r="C70" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>210</v>
+      <c r="D70" s="10">
+        <v>42318</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>205</v>
@@ -2281,8 +2277,8 @@
       <c r="C74" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>210</v>
+      <c r="D74" s="10">
+        <v>42318</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>205</v>
@@ -2315,8 +2311,8 @@
       <c r="C76" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>210</v>
+      <c r="D76" s="10">
+        <v>42318</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>205</v>
@@ -2654,7 +2650,7 @@
       <c r="C97" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D97" s="17">
+      <c r="D97" s="16">
         <v>42282</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -2671,7 +2667,7 @@
       <c r="C98" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="17">
+      <c r="D98" s="16">
         <v>42282</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -2688,7 +2684,7 @@
       <c r="C99" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="17">
+      <c r="D99" s="16">
         <v>42282</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -2705,7 +2701,7 @@
       <c r="C100" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="16">
         <v>42282</v>
       </c>
       <c r="E100" s="7" t="s">

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -1081,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1454,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="10">
-        <v>42282</v>
+        <v>42411</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>208</v>

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1539,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="10">
-        <v>42282</v>
+        <v>42430</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>203</v>

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="211">
   <si>
     <t>№</t>
   </si>
@@ -1081,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,13 +2439,13 @@
         <v>78</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="D84" s="10">
+        <v>42444</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>200</v>
       </c>
       <c r="D85" s="10">
-        <v>42101</v>
+        <v>42444</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>202</v>
@@ -2623,7 +2623,7 @@
         <v>200</v>
       </c>
       <c r="D95" s="10">
-        <v>42289</v>
+        <v>42444</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>208</v>

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -1081,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1488,7 @@
         <v>200</v>
       </c>
       <c r="D26" s="10">
-        <v>42103</v>
+        <v>42479</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>202</v>
@@ -1505,7 +1505,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="10">
-        <v>42103</v>
+        <v>42479</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>202</v>

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1454,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="10">
-        <v>42411</v>
+        <v>42527</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>208</v>

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="211">
   <si>
     <t>№</t>
   </si>
@@ -1081,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1454,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="10">
-        <v>42527</v>
+        <v>42537</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>208</v>
@@ -2504,7 +2504,7 @@
         <v>200</v>
       </c>
       <c r="D88" s="10">
-        <v>42261</v>
+        <v>42537</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>202</v>
@@ -2538,7 +2538,7 @@
         <v>200</v>
       </c>
       <c r="D90" s="10">
-        <v>42261</v>
+        <v>42545</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>205</v>
@@ -2569,13 +2569,13 @@
         <v>83</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="D92" s="10">
+        <v>42545</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="211">
   <si>
     <t>№</t>
   </si>
@@ -1081,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,7 @@
         <v>200</v>
       </c>
       <c r="D52" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>205</v>
@@ -1927,7 +1927,7 @@
         <v>200</v>
       </c>
       <c r="D53" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>205</v>
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="D54" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>205</v>
@@ -1961,7 +1961,7 @@
         <v>200</v>
       </c>
       <c r="D55" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>205</v>
@@ -1978,7 +1978,7 @@
         <v>200</v>
       </c>
       <c r="D56" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>205</v>
@@ -1995,7 +1995,7 @@
         <v>200</v>
       </c>
       <c r="D57" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>205</v>
@@ -2012,7 +2012,7 @@
         <v>200</v>
       </c>
       <c r="D58" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>205</v>
@@ -2029,7 +2029,7 @@
         <v>200</v>
       </c>
       <c r="D59" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>205</v>
@@ -2046,7 +2046,7 @@
         <v>200</v>
       </c>
       <c r="D60" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>205</v>
@@ -2063,7 +2063,7 @@
         <v>200</v>
       </c>
       <c r="D61" s="10">
-        <v>42261</v>
+        <v>42572</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>205</v>
@@ -2623,7 +2623,7 @@
         <v>200</v>
       </c>
       <c r="D95" s="10">
-        <v>42444</v>
+        <v>42572</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>208</v>
@@ -2729,11 +2729,11 @@
       <c r="C102" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D102" s="10">
-        <v>41724</v>
+      <c r="D102" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2746,11 +2746,11 @@
       <c r="C103" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="10">
-        <v>41724</v>
+      <c r="D103" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">

--- a/приложение № 2 колледжи.xlsx
+++ b/приложение № 2 колледжи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="209">
   <si>
     <t>№</t>
   </si>
@@ -627,9 +627,6 @@
     <t>Документ</t>
   </si>
   <si>
-    <t>Положение и договор</t>
-  </si>
-  <si>
     <t>Да</t>
   </si>
   <si>
@@ -643,9 +640,6 @@
   </si>
   <si>
     <t>Документы</t>
-  </si>
-  <si>
-    <t>Изображение</t>
   </si>
   <si>
     <t>Архивы</t>
@@ -655,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,13 +674,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF555555"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -727,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -765,7 +752,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1081,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="C37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,21 +1088,21 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1149,7 @@
         <v>42261</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1180,7 +1166,7 @@
         <v>42261</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1197,7 +1183,7 @@
         <v>42261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1214,7 +1200,7 @@
         <v>42261</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1231,7 +1217,7 @@
         <v>42261</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1248,7 +1234,7 @@
         <v>42261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1276,7 +1262,7 @@
         <v>42250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1386,7 +1372,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="10">
-        <v>42261</v>
+        <v>42573</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>202</v>
@@ -1402,11 +1388,11 @@
       <c r="C21" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="15">
-        <v>42278</v>
+      <c r="D21" s="10">
+        <v>42573</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1419,11 +1405,11 @@
       <c r="C22" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="15">
-        <v>42278</v>
+      <c r="D22" s="10">
+        <v>42573</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -1437,10 +1423,10 @@
         <v>200</v>
       </c>
       <c r="D23" s="10">
-        <v>41724</v>
+        <v>42573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1454,10 +1440,10 @@
         <v>200</v>
       </c>
       <c r="D24" s="10">
-        <v>42537</v>
+        <v>42576</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1471,7 +1457,7 @@
         <v>200</v>
       </c>
       <c r="D25" s="10">
-        <v>42103</v>
+        <v>42576</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>202</v>
@@ -1505,7 +1491,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="10">
-        <v>42479</v>
+        <v>42576</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>202</v>
@@ -1519,13 +1505,13 @@
         <v>118</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="D28" s="10">
+        <v>42576</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -1542,7 +1528,7 @@
         <v>42430</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -1553,13 +1539,13 @@
         <v>122</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="D30" s="10">
+        <v>42576</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -1604,7 +1590,7 @@
         <v>42261</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1621,7 +1607,7 @@
         <v>42261</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1638,7 +1624,7 @@
         <v>42261</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -1666,13 +1652,13 @@
         <v>131</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="D37" s="14">
+        <v>42612</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1706,7 +1692,7 @@
         <v>42261</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1723,7 +1709,7 @@
         <v>42261</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -1757,7 +1743,7 @@
         <v>42101</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="126" x14ac:dyDescent="0.25">
@@ -1791,7 +1777,7 @@
         <v>42261</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1817,7 +1803,7 @@
         <v>42261</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1834,7 +1820,7 @@
         <v>42261</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -1862,7 +1848,7 @@
         <v>154</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D49" s="10">
         <v>42241</v>
@@ -1885,7 +1871,7 @@
         <v>42101</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1913,7 +1899,7 @@
         <v>42572</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1930,7 +1916,7 @@
         <v>42572</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1947,7 +1933,7 @@
         <v>42572</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1964,7 +1950,7 @@
         <v>42572</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1981,7 +1967,7 @@
         <v>42572</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1998,7 +1984,7 @@
         <v>42572</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2015,7 +2001,7 @@
         <v>42572</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2032,7 +2018,7 @@
         <v>42572</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2049,7 +2035,7 @@
         <v>42572</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2066,7 +2052,7 @@
         <v>42572</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2179,7 +2165,7 @@
         <v>42318</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2196,7 +2182,7 @@
         <v>42318</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2213,7 +2199,7 @@
         <v>42318</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2258,13 +2244,13 @@
         <v>61</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="D73" s="15">
+        <v>42444</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -2281,7 +2267,7 @@
         <v>42318</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2315,7 +2301,7 @@
         <v>42318</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -2343,7 +2329,7 @@
         <v>42101</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2377,7 +2363,7 @@
         <v>42101</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2411,7 +2397,7 @@
         <v>42101</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2479,7 +2465,7 @@
         <v>42101</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2524,7 +2510,7 @@
         <v>42261</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2541,7 +2527,7 @@
         <v>42545</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2575,7 +2561,7 @@
         <v>42545</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -2592,7 +2578,7 @@
         <v>41604</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2609,7 +2595,7 @@
         <v>42261</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -2626,7 +2612,7 @@
         <v>42572</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2650,11 +2636,11 @@
       <c r="C97" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D97" s="16">
-        <v>42282</v>
+      <c r="D97" s="15">
+        <v>42577</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2667,11 +2653,11 @@
       <c r="C98" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="16">
-        <v>42282</v>
+      <c r="D98" s="15">
+        <v>42577</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2684,11 +2670,11 @@
       <c r="C99" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="16">
-        <v>42282</v>
+      <c r="D99" s="15">
+        <v>42577</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2701,11 +2687,11 @@
       <c r="C100" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="16">
-        <v>42282</v>
+      <c r="D100" s="15">
+        <v>42577</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2727,7 +2713,7 @@
         <v>88</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>201</v>
@@ -2744,7 +2730,7 @@
         <v>89</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>201</v>
